--- a/2021/Linear Model 2021.xlsx
+++ b/2021/Linear Model 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446F3B78-1870-46BC-B9F6-376C47371701}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4CB8B7-BAFA-4EEA-A836-DE29D80AA89F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="4785" windowHeight="3585" xr2:uid="{F5E4C888-7508-4169-93DA-1ABEF4C3DE0B}"/>
+    <workbookView xWindow="26385" yWindow="2363" windowWidth="4785" windowHeight="3585" xr2:uid="{F5E4C888-7508-4169-93DA-1ABEF4C3DE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="54">
   <si>
     <t>Team</t>
   </si>
@@ -195,55 +195,7 @@
     <t xml:space="preserve"> Montréal Canadiens</t>
   </si>
   <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
     <t>Final Ranking:</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Nashville</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Tampa</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>Montreal</t>
-  </si>
-  <si>
-    <t>Edmonton</t>
-  </si>
-  <si>
-    <t>Winnipeg</t>
-  </si>
-  <si>
-    <t>Vegas</t>
-  </si>
-  <si>
-    <t>St. Louis</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
   </si>
 </sst>
 </file>
@@ -652,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A436F2EC-B706-4B14-A7CA-68A0EDE9EB3C}">
   <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J64" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2186,7 +2138,7 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
-        <f t="shared" ref="C42:N42" si="10">(D2-D$40)/(D$39-D$40)</f>
+        <f t="shared" ref="D42:N42" si="10">(D2-D$40)/(D$39-D$40)</f>
         <v>0.70370370370370372</v>
       </c>
       <c r="E42" s="1"/>
@@ -3293,9 +3245,6 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="74" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
@@ -3328,9 +3277,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="P74" s="11"/>
     </row>
     <row r="75" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
@@ -3363,17 +3310,10 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="R75" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="P76" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="R76" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="P76" s="11"/>
+      <c r="R76" s="11"/>
     </row>
     <row r="77" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A77" s="5" t="s">
@@ -3397,9 +3337,6 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A78" s="1" t="s">
@@ -3419,15 +3356,12 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="S78" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="79" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A79" s="1" t="s">
@@ -3462,13 +3396,9 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="7"/>
-      <c r="P79" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="P79" s="9"/>
       <c r="Q79" s="1"/>
-      <c r="S79" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="S79" s="11"/>
     </row>
     <row r="80" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A80" s="1" t="s">
@@ -3503,9 +3433,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
@@ -3543,9 +3471,6 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-      <c r="R81" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="82" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="1" t="s">
@@ -3580,13 +3505,9 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="R82" s="11"/>
     </row>
     <row r="83" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="1" t="s">
@@ -3621,9 +3542,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="P83" s="9"/>
       <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
@@ -3661,9 +3580,7 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="T84" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="T84" s="11"/>
     </row>
     <row r="85" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="1" t="s">
@@ -3694,12 +3611,7 @@
       <c r="K85" t="s">
         <v>13</v>
       </c>
-      <c r="P85" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="T85" t="s">
-        <v>61</v>
-      </c>
+      <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="1" t="s">
@@ -3730,9 +3642,7 @@
       <c r="K86" t="s">
         <v>14</v>
       </c>
-      <c r="P86" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="P86" s="8"/>
     </row>
     <row r="87" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="1" t="s">
@@ -3763,9 +3673,6 @@
       <c r="K87" t="s">
         <v>18</v>
       </c>
-      <c r="R87" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="88" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A88" s="1" t="s">
@@ -3796,12 +3703,8 @@
       <c r="K88" t="s">
         <v>20</v>
       </c>
-      <c r="P88" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="R88" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="P88" s="8"/>
+      <c r="R88" s="11"/>
     </row>
     <row r="89" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A89" s="1" t="s">
@@ -3832,9 +3735,7 @@
       <c r="K89" t="s">
         <v>21</v>
       </c>
-      <c r="P89" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="P89" s="10"/>
     </row>
     <row r="90" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A90" s="1" t="s">
@@ -3865,9 +3766,7 @@
       <c r="K90" t="s">
         <v>19</v>
       </c>
-      <c r="S90" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="S90" s="11"/>
     </row>
     <row r="91" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A91" s="1" t="s">
@@ -3898,12 +3797,7 @@
       <c r="K91" t="s">
         <v>23</v>
       </c>
-      <c r="P91" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S91" t="s">
-        <v>62</v>
-      </c>
+      <c r="P91" s="10"/>
     </row>
     <row r="92" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A92" s="1" t="s">
@@ -3934,9 +3828,7 @@
       <c r="K92" t="s">
         <v>22</v>
       </c>
-      <c r="P92" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="P92" s="8"/>
     </row>
     <row r="93" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A93" s="1" t="s">
@@ -3967,9 +3859,7 @@
       <c r="K93" t="s">
         <v>16</v>
       </c>
-      <c r="R93" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="R93" s="11"/>
     </row>
     <row r="94" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A94" s="1" t="s">
@@ -4000,17 +3890,10 @@
       <c r="K94" t="s">
         <v>24</v>
       </c>
-      <c r="P94" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R94" t="s">
-        <v>65</v>
-      </c>
+      <c r="P94" s="8"/>
     </row>
     <row r="95" spans="1:20" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="P95" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="P95" s="10"/>
     </row>
     <row r="125" spans="16:17" x14ac:dyDescent="0.45">
       <c r="P125">
